--- a/dacs/Plan-ITC.xlsx
+++ b/dacs/Plan-ITC.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\OneDrive\Máy tính\k xem\dacs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\OneDrive\Máy tính\k xem\savicom\dacs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98904CD0-F153-45D5-8FFC-6628714AC67F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79BE1166-D7D9-483E-A712-8E42DF507490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="39">
   <si>
     <t>PROJECT TITLE</t>
   </si>
@@ -135,6 +135,21 @@
   </si>
   <si>
     <t>code front-end của trang HDV</t>
+  </si>
+  <si>
+    <t>6.1</t>
+  </si>
+  <si>
+    <t>front-end của trang login</t>
+  </si>
+  <si>
+    <t>code front-end của trang login</t>
+  </si>
+  <si>
+    <t>6.2</t>
+  </si>
+  <si>
+    <t>code front-end của trang register</t>
   </si>
 </sst>
 </file>
@@ -569,8 +584,8 @@
   </sheetPr>
   <dimension ref="A1:T965"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -885,7 +900,7 @@
       <c r="S11" s="5"/>
       <c r="T11" s="5"/>
     </row>
-    <row r="12" spans="1:20" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
       <c r="B12" s="16" t="s">
         <v>28</v>
@@ -1097,7 +1112,7 @@
       <c r="S18" s="5"/>
       <c r="T18" s="5"/>
     </row>
-    <row r="19" spans="1:20" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="21" t="s">
         <v>30</v>
@@ -1127,7 +1142,7 @@
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
     </row>
-    <row r="20" spans="1:20" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="13">
         <v>5</v>
@@ -1159,7 +1174,7 @@
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
     </row>
-    <row r="21" spans="1:20" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="21" t="s">
         <v>30</v>
@@ -1168,7 +1183,7 @@
         <v>33</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E21" s="14" t="s">
         <v>20</v>
@@ -1191,14 +1206,24 @@
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
     </row>
-    <row r="22" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
+      <c r="B22" s="13">
+        <v>6</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="15">
+        <v>44860</v>
+      </c>
+      <c r="G22" s="14"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
@@ -1213,13 +1238,23 @@
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
     </row>
-    <row r="23" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
+      <c r="B23" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="15">
+        <v>44860</v>
+      </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
@@ -1235,12 +1270,20 @@
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
     </row>
-    <row r="24" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
+      <c r="B24" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>20</v>
+      </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>

--- a/dacs/Plan-ITC.xlsx
+++ b/dacs/Plan-ITC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\OneDrive\Máy tính\k xem\savicom\dacs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79BE1166-D7D9-483E-A712-8E42DF507490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32FBCA16-40B6-4570-9C34-E43D0E7E051B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="40">
   <si>
     <t>PROJECT TITLE</t>
   </si>
@@ -150,6 +150,9 @@
   </si>
   <si>
     <t>code front-end của trang register</t>
+  </si>
+  <si>
+    <t>link github:https://github.com/Phan-Thanh-DaT-2002/ICT-du_lich/tree/main/dacs</t>
   </si>
 </sst>
 </file>
@@ -312,7 +315,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -364,6 +367,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -585,7 +591,7 @@
   <dimension ref="A1:T965"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="B27" sqref="B27:G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1206,7 +1212,7 @@
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
     </row>
-    <row r="22" spans="1:20" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="13">
         <v>6</v>
@@ -1238,7 +1244,7 @@
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
     </row>
-    <row r="23" spans="1:20" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="21" t="s">
         <v>34</v>
@@ -1270,7 +1276,7 @@
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
     </row>
-    <row r="24" spans="1:20" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2" t="s">
         <v>37</v>
@@ -1322,7 +1328,7 @@
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
     </row>
-    <row r="26" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1344,14 +1350,16 @@
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
     </row>
-    <row r="27" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
+      <c r="B27" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
@@ -1366,7 +1374,7 @@
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
     </row>
-    <row r="28" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -1586,7 +1594,7 @@
       <c r="S37" s="2"/>
       <c r="T37" s="2"/>
     </row>
-    <row r="38" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -1608,7 +1616,7 @@
       <c r="S38" s="2"/>
       <c r="T38" s="2"/>
     </row>
-    <row r="39" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -1630,7 +1638,7 @@
       <c r="S39" s="2"/>
       <c r="T39" s="2"/>
     </row>
-    <row r="40" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -1652,7 +1660,7 @@
       <c r="S40" s="2"/>
       <c r="T40" s="2"/>
     </row>
-    <row r="41" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -1674,7 +1682,7 @@
       <c r="S41" s="2"/>
       <c r="T41" s="2"/>
     </row>
-    <row r="42" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -1696,7 +1704,7 @@
       <c r="S42" s="2"/>
       <c r="T42" s="2"/>
     </row>
-    <row r="43" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -1718,7 +1726,7 @@
       <c r="S43" s="2"/>
       <c r="T43" s="2"/>
     </row>
-    <row r="44" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -1740,7 +1748,7 @@
       <c r="S44" s="2"/>
       <c r="T44" s="2"/>
     </row>
-    <row r="45" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -1762,7 +1770,7 @@
       <c r="S45" s="2"/>
       <c r="T45" s="2"/>
     </row>
-    <row r="46" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -1784,7 +1792,7 @@
       <c r="S46" s="2"/>
       <c r="T46" s="2"/>
     </row>
-    <row r="47" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -22003,8 +22011,9 @@
       <c r="T965" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B27:G27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
